--- a/dymodeling health/file/test_question.xlsx
+++ b/dymodeling health/file/test_question.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF47085-C736-4506-B7BC-07A65D7301C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EADF93-A540-4EDA-B891-EE1C98674B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B94A83AD-F36E-4206-AB0F-7BC48A167486}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$67</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="81">
   <si>
     <t>29.대기실 및 진료실 위치 안내</t>
   </si>
@@ -48,9 +48,6 @@
     <t>33.다음 진료실 예약</t>
   </si>
   <si>
-    <t>31.수납 방법 안내</t>
-  </si>
-  <si>
     <t>30.약국 위치 문의</t>
   </si>
   <si>
@@ -176,6 +173,150 @@
   </si>
   <si>
     <t>question</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29.대기실 및 진료실 위치 안내</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실로 안내해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료실 옆에 대기실이 있나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료실이 1층인가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실에서 기다리라고 했는데, 어디서 기다려요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기실이랑 진료실이랑 방향이 다른가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수 시간이 지났는데 혹시 대기순번이 넘어갔나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수가 왜이렇게 오래 걸려요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음에 들어가는 순번인데, 잠깐 화장실 다녀와도 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수하려고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진료 접수 어떻게 하죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 예약을 안해서 예약 하려고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기서 다음 진료 예약하면 되나요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음 진료 예약하려고 하는데요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다음주에 예약 시간 되는 날짜를 알려주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>원래 다음주에 예약을 했는데, 날짜를 옮기려고요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드로 결제할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이만원은 현금 결제하고 나머지 카드로 할게요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카드 결제 한 거 할부로 다시 결제하고 싶어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국 어떻게 가요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국이 몇층에 있죠?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근처 약국 어디가 있는지 알려주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국까지 데려다 주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>약국 까지 오래걸리나요? 너무 힘든데</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어제부터 배가 아프고 열도 계속 나는 거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>목소리가 안나와요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지난주부터 몸살기가 있었어요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장염 나은지 얼마 안됐는데, 또 걸린거 같아요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이가 넘어져서 팔꿈치가 까졌는데, 진물이 계속 나요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 어떻게 해요? 카드 리더기가 어디있어요?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환자용 처방전 하나 더 프린트 해주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실비보험 신청하려고 하는데, 진료비계산서 뽑아주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회사에 낼 증빙서류 좀 뽑아주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처방전에 감기 증상으로 내원이라고 적어주세요.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소견서 어떻게 발급하죠?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,11 +363,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,312 +681,592 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE2C10D4-BE69-4727-B54B-C80E090D2BBA}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="80.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" t="s">
         <v>44</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>0</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
         <v>1</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>1</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>1</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>1</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
         <v>2</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
         <v>2</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>2</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B26" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>2</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>42</v>
+      </c>
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>42</v>
+      </c>
+      <c r="B35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>3</v>
       </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="B42" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>3</v>
       </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="B43" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>3</v>
+      </c>
+      <c r="B50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>3</v>
+      </c>
+      <c r="B51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>4</v>
       </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="B52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>4</v>
       </c>
-      <c r="B23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="B53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>4</v>
       </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>4</v>
       </c>
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B55" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>4</v>
       </c>
-      <c r="B26" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4</v>
+      </c>
+      <c r="B57" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>5</v>
       </c>
-      <c r="B27" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B63" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>5</v>
       </c>
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="B64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>5</v>
       </c>
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B65" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>5</v>
       </c>
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B66" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
         <v>5</v>
       </c>
-      <c r="B31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B67" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B35" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B36" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" t="s">
-        <v>42</v>
+      <c r="B68" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
